--- a/exeltosql/app_list_special.xlsx
+++ b/exeltosql/app_list_special.xlsx
@@ -1281,12 +1281,12 @@
   <dimension ref="A1:AA486"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="9.140625" style="14"/>
+    <col min="3" max="3" width="25.7109375" style="14" customWidth="1"/>
     <col min="8" max="8" width="20.7109375" style="14" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" customWidth="1"/>
     <col min="26" max="26" width="15.28515625" customWidth="1"/>
@@ -2912,7 +2912,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="24">
+    <row r="29" spans="1:26">
       <c r="A29" s="66">
         <v>84</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="24">
+    <row r="30" spans="1:26">
       <c r="A30" s="66">
         <v>84</v>
       </c>
@@ -3026,7 +3026,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="24">
+    <row r="31" spans="1:26">
       <c r="A31" s="66">
         <v>84</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="24">
+    <row r="32" spans="1:26">
       <c r="A32" s="66">
         <v>84</v>
       </c>
@@ -3140,7 +3140,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:26" ht="24.75" thickBot="1">
+    <row r="33" spans="1:26" ht="15.75" thickBot="1">
       <c r="A33" s="66">
         <v>84</v>
       </c>
@@ -3197,7 +3197,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:26" ht="24">
+    <row r="34" spans="1:26">
       <c r="A34" s="66">
         <v>84</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:26" ht="24">
+    <row r="35" spans="1:26">
       <c r="A35" s="66">
         <v>84</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:26" ht="24">
+    <row r="36" spans="1:26">
       <c r="A36" s="66">
         <v>84</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:26" ht="24">
+    <row r="37" spans="1:26">
       <c r="A37" s="66">
         <v>84</v>
       </c>
@@ -3425,7 +3425,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:26" ht="24">
+    <row r="38" spans="1:26">
       <c r="A38" s="66">
         <v>84</v>
       </c>
@@ -3482,7 +3482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:26" ht="24">
+    <row r="39" spans="1:26">
       <c r="A39" s="66">
         <v>84</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:26" ht="24">
+    <row r="40" spans="1:26">
       <c r="A40" s="66">
         <v>84</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:26" ht="24.75" thickBot="1">
+    <row r="41" spans="1:26" ht="15.75" thickBot="1">
       <c r="A41" s="66">
         <v>84</v>
       </c>
@@ -3653,7 +3653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:26" ht="24">
+    <row r="42" spans="1:26">
       <c r="A42" s="66">
         <v>84</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:26" ht="24">
+    <row r="43" spans="1:26">
       <c r="A43" s="66">
         <v>84</v>
       </c>
@@ -3767,7 +3767,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:26" ht="24">
+    <row r="44" spans="1:26">
       <c r="A44" s="66">
         <v>84</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:26" ht="24">
+    <row r="45" spans="1:26">
       <c r="A45" s="66">
         <v>84</v>
       </c>
@@ -3881,7 +3881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:26" ht="24">
+    <row r="46" spans="1:26">
       <c r="A46" s="66">
         <v>84</v>
       </c>
@@ -3938,7 +3938,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:26" ht="24">
+    <row r="47" spans="1:26">
       <c r="A47" s="66">
         <v>84</v>
       </c>
@@ -3995,7 +3995,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:26" ht="24">
+    <row r="48" spans="1:26">
       <c r="A48" s="66">
         <v>84</v>
       </c>
@@ -4052,7 +4052,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:26" ht="24.75" thickBot="1">
+    <row r="49" spans="1:26" ht="15.75" thickBot="1">
       <c r="A49" s="66">
         <v>84</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:26" ht="36">
+    <row r="50" spans="1:26">
       <c r="A50" s="66">
         <v>85</v>
       </c>
@@ -4166,7 +4166,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:26" ht="36">
+    <row r="51" spans="1:26">
       <c r="A51" s="66">
         <v>85</v>
       </c>
@@ -4223,7 +4223,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:26" ht="36">
+    <row r="52" spans="1:26">
       <c r="A52" s="66">
         <v>85</v>
       </c>
@@ -4280,7 +4280,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:26" ht="36">
+    <row r="53" spans="1:26">
       <c r="A53" s="66">
         <v>85</v>
       </c>
@@ -4337,7 +4337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:26" ht="36">
+    <row r="54" spans="1:26">
       <c r="A54" s="66">
         <v>85</v>
       </c>
@@ -4394,7 +4394,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:26" ht="36">
+    <row r="55" spans="1:26">
       <c r="A55" s="66">
         <v>85</v>
       </c>
@@ -4451,7 +4451,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:26" ht="36">
+    <row r="56" spans="1:26">
       <c r="A56" s="66">
         <v>85</v>
       </c>
@@ -4508,7 +4508,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:26" ht="36.75" thickBot="1">
+    <row r="57" spans="1:26" ht="15.75" thickBot="1">
       <c r="A57" s="66">
         <v>85</v>
       </c>
@@ -4565,7 +4565,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:26" ht="36">
+    <row r="58" spans="1:26">
       <c r="A58" s="66">
         <v>85</v>
       </c>
@@ -4622,7 +4622,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:26" ht="36">
+    <row r="59" spans="1:26">
       <c r="A59" s="66">
         <v>85</v>
       </c>
@@ -4679,7 +4679,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:26" ht="36">
+    <row r="60" spans="1:26">
       <c r="A60" s="66">
         <v>85</v>
       </c>
@@ -4736,7 +4736,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:26" ht="36">
+    <row r="61" spans="1:26">
       <c r="A61" s="66">
         <v>85</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:26" ht="36">
+    <row r="62" spans="1:26">
       <c r="A62" s="66">
         <v>85</v>
       </c>
@@ -4850,7 +4850,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:26" ht="36">
+    <row r="63" spans="1:26">
       <c r="A63" s="66">
         <v>85</v>
       </c>
@@ -4907,7 +4907,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:26" ht="36">
+    <row r="64" spans="1:26">
       <c r="A64" s="66">
         <v>85</v>
       </c>
@@ -4964,7 +4964,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:26" ht="36.75" thickBot="1">
+    <row r="65" spans="1:26" ht="15.75" thickBot="1">
       <c r="A65" s="66">
         <v>85</v>
       </c>
@@ -5021,7 +5021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:26" ht="24.75" thickBot="1">
+    <row r="66" spans="1:26" ht="15.75" thickBot="1">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -5076,7 +5076,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:26" ht="24.75" thickBot="1">
+    <row r="67" spans="1:26" ht="15.75" thickBot="1">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -5131,7 +5131,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:26" ht="24.75" thickBot="1">
+    <row r="68" spans="1:26" ht="15.75" thickBot="1">
       <c r="A68" s="1">
         <v>65</v>
       </c>
@@ -5186,7 +5186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:26" ht="24.75" thickBot="1">
+    <row r="69" spans="1:26" ht="15.75" thickBot="1">
       <c r="A69" s="1">
         <v>65</v>
       </c>
@@ -5241,7 +5241,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:26" ht="24.75" thickBot="1">
+    <row r="70" spans="1:26" ht="15.75" thickBot="1">
       <c r="A70" s="1">
         <v>65</v>
       </c>
@@ -5296,7 +5296,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:26" ht="24.75" thickBot="1">
+    <row r="71" spans="1:26" ht="15.75" thickBot="1">
       <c r="A71" s="1">
         <v>65</v>
       </c>
@@ -5351,7 +5351,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:26" ht="24.75" thickBot="1">
+    <row r="72" spans="1:26" ht="15.75" thickBot="1">
       <c r="A72" s="1">
         <v>65</v>
       </c>
@@ -5406,7 +5406,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:26" ht="24.75" thickBot="1">
+    <row r="73" spans="1:26" ht="15.75" thickBot="1">
       <c r="A73" s="1">
         <v>65</v>
       </c>
@@ -5461,7 +5461,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:26" ht="24.75" thickBot="1">
+    <row r="74" spans="1:26" ht="15.75" thickBot="1">
       <c r="A74" s="1">
         <v>65</v>
       </c>
@@ -5516,7 +5516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:26" ht="24.75" thickBot="1">
+    <row r="75" spans="1:26" ht="15.75" thickBot="1">
       <c r="A75" s="1">
         <v>65</v>
       </c>
@@ -5571,7 +5571,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:26" ht="24.75" thickBot="1">
+    <row r="76" spans="1:26" ht="15.75" thickBot="1">
       <c r="A76" s="1">
         <v>65</v>
       </c>
@@ -5626,7 +5626,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:26" ht="24.75" thickBot="1">
+    <row r="77" spans="1:26" ht="15.75" thickBot="1">
       <c r="A77" s="1">
         <v>65</v>
       </c>
@@ -5681,7 +5681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:26" ht="24.75" thickBot="1">
+    <row r="78" spans="1:26" ht="15.75" thickBot="1">
       <c r="A78" s="1">
         <v>65</v>
       </c>
@@ -5736,7 +5736,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:26" ht="24.75" thickBot="1">
+    <row r="79" spans="1:26" ht="15.75" thickBot="1">
       <c r="A79" s="1">
         <v>65</v>
       </c>
@@ -5791,7 +5791,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:26" ht="24.75" thickBot="1">
+    <row r="80" spans="1:26" ht="15.75" thickBot="1">
       <c r="A80" s="1">
         <v>65</v>
       </c>
@@ -5846,7 +5846,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:26" ht="24.75" thickBot="1">
+    <row r="81" spans="1:26" ht="15.75" thickBot="1">
       <c r="A81" s="1">
         <v>65</v>
       </c>
@@ -5901,7 +5901,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:26" ht="24.75" thickBot="1">
+    <row r="82" spans="1:26" ht="15.75" thickBot="1">
       <c r="A82" s="1">
         <v>65</v>
       </c>
@@ -5956,7 +5956,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:26" ht="24.75" thickBot="1">
+    <row r="83" spans="1:26" ht="15.75" thickBot="1">
       <c r="A83" s="1">
         <v>65</v>
       </c>
@@ -6011,7 +6011,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:26" ht="24.75" thickBot="1">
+    <row r="84" spans="1:26" ht="15.75" thickBot="1">
       <c r="A84" s="1">
         <v>65</v>
       </c>
@@ -6066,7 +6066,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:26" ht="24.75" thickBot="1">
+    <row r="85" spans="1:26" ht="15.75" thickBot="1">
       <c r="A85" s="1">
         <v>65</v>
       </c>
@@ -6121,7 +6121,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:26" ht="24.75" thickBot="1">
+    <row r="86" spans="1:26" ht="15.75" thickBot="1">
       <c r="A86" s="1">
         <v>65</v>
       </c>
@@ -6176,7 +6176,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:26" ht="24.75" thickBot="1">
+    <row r="87" spans="1:26" ht="15.75" thickBot="1">
       <c r="A87" s="1">
         <v>65</v>
       </c>
@@ -6231,7 +6231,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:26" ht="24.75" thickBot="1">
+    <row r="88" spans="1:26" ht="15.75" thickBot="1">
       <c r="A88" s="1">
         <v>65</v>
       </c>
@@ -6286,7 +6286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:26" ht="24.75" thickBot="1">
+    <row r="89" spans="1:26" ht="15.75" thickBot="1">
       <c r="A89" s="1">
         <v>65</v>
       </c>
@@ -6341,7 +6341,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:26" ht="24.75" thickBot="1">
+    <row r="90" spans="1:26" ht="15.75" thickBot="1">
       <c r="A90" s="1">
         <v>65</v>
       </c>
@@ -6396,7 +6396,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:26" ht="24.75" thickBot="1">
+    <row r="91" spans="1:26" ht="15.75" thickBot="1">
       <c r="A91" s="1">
         <v>65</v>
       </c>
@@ -6451,7 +6451,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:26" ht="24.75" thickBot="1">
+    <row r="92" spans="1:26" ht="15.75" thickBot="1">
       <c r="A92" s="1">
         <v>65</v>
       </c>
@@ -6506,7 +6506,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:26" ht="24.75" thickBot="1">
+    <row r="93" spans="1:26" ht="15.75" thickBot="1">
       <c r="A93" s="1">
         <v>65</v>
       </c>
@@ -6561,7 +6561,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:26" ht="24.75" thickBot="1">
+    <row r="94" spans="1:26" ht="15.75" thickBot="1">
       <c r="A94" s="1">
         <v>65</v>
       </c>
@@ -6616,7 +6616,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:26" ht="24.75" thickBot="1">
+    <row r="95" spans="1:26" ht="15.75" thickBot="1">
       <c r="A95" s="1">
         <v>65</v>
       </c>
@@ -6671,7 +6671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:26" ht="24.75" thickBot="1">
+    <row r="96" spans="1:26" ht="15.75" thickBot="1">
       <c r="A96" s="1">
         <v>65</v>
       </c>
@@ -6726,7 +6726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:26" ht="24.75" thickBot="1">
+    <row r="97" spans="1:26" ht="15.75" thickBot="1">
       <c r="A97" s="1">
         <v>65</v>
       </c>
@@ -6781,7 +6781,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:26" ht="24.75" thickBot="1">
+    <row r="98" spans="1:26" ht="15.75" thickBot="1">
       <c r="A98" s="1">
         <v>65</v>
       </c>
@@ -6836,7 +6836,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:26" ht="24.75" thickBot="1">
+    <row r="99" spans="1:26" ht="15.75" thickBot="1">
       <c r="A99" s="1">
         <v>65</v>
       </c>
@@ -6891,7 +6891,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:26" ht="24.75" thickBot="1">
+    <row r="100" spans="1:26" ht="15.75" thickBot="1">
       <c r="A100" s="1">
         <v>65</v>
       </c>
@@ -6946,7 +6946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:26" ht="24.75" thickBot="1">
+    <row r="101" spans="1:26" ht="15.75" thickBot="1">
       <c r="A101" s="66">
         <v>87</v>
       </c>
@@ -7001,7 +7001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:26" ht="24.75" thickBot="1">
+    <row r="102" spans="1:26" ht="15.75" thickBot="1">
       <c r="A102" s="66">
         <v>87</v>
       </c>
@@ -7058,7 +7058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:26" ht="24.75" thickBot="1">
+    <row r="103" spans="1:26" ht="15.75" thickBot="1">
       <c r="A103" s="66">
         <v>87</v>
       </c>
@@ -7113,7 +7113,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:26" ht="24.75" thickBot="1">
+    <row r="104" spans="1:26" ht="15.75" thickBot="1">
       <c r="A104" s="66">
         <v>87</v>
       </c>
@@ -7168,7 +7168,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:26" ht="24.75" thickBot="1">
+    <row r="105" spans="1:26" ht="15.75" thickBot="1">
       <c r="A105" s="66">
         <v>87</v>
       </c>
@@ -7767,7 +7767,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:26" ht="36.75" thickBot="1">
+    <row r="116" spans="1:26" ht="15.75" thickBot="1">
       <c r="A116" s="3">
         <v>14</v>
       </c>
@@ -7822,7 +7822,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:26" ht="36.75" thickBot="1">
+    <row r="117" spans="1:26" ht="15.75" thickBot="1">
       <c r="A117" s="3">
         <v>14</v>
       </c>
@@ -7879,7 +7879,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:26" ht="24.75" thickBot="1">
+    <row r="118" spans="1:26" ht="15.75" thickBot="1">
       <c r="A118" s="2">
         <v>76</v>
       </c>
@@ -7936,7 +7936,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:26" ht="72">
+    <row r="119" spans="1:26" ht="24">
       <c r="A119" s="66">
         <v>91</v>
       </c>
@@ -7991,7 +7991,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:26" ht="72">
+    <row r="120" spans="1:26" ht="24">
       <c r="A120" s="66">
         <v>91</v>
       </c>
@@ -8046,7 +8046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:26" ht="72">
+    <row r="121" spans="1:26" ht="24">
       <c r="A121" s="66">
         <v>91</v>
       </c>
@@ -8101,7 +8101,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:26" ht="72">
+    <row r="122" spans="1:26" ht="24">
       <c r="A122" s="66">
         <v>91</v>
       </c>
@@ -8156,7 +8156,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:26" ht="72">
+    <row r="123" spans="1:26" ht="24">
       <c r="A123" s="66">
         <v>91</v>
       </c>
@@ -8211,7 +8211,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:26" ht="72">
+    <row r="124" spans="1:26" ht="24">
       <c r="A124" s="66">
         <v>91</v>
       </c>
@@ -8266,7 +8266,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:26" ht="72">
+    <row r="125" spans="1:26" ht="24">
       <c r="A125" s="66">
         <v>91</v>
       </c>
@@ -8321,7 +8321,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:26" ht="72.75" thickBot="1">
+    <row r="126" spans="1:26" ht="24.75" thickBot="1">
       <c r="A126" s="66">
         <v>91</v>
       </c>
@@ -8376,7 +8376,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:26" ht="60">
+    <row r="127" spans="1:26" ht="24">
       <c r="A127" s="66">
         <v>91</v>
       </c>
@@ -8431,7 +8431,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:26" ht="60">
+    <row r="128" spans="1:26" ht="24">
       <c r="A128" s="66">
         <v>91</v>
       </c>
@@ -8486,7 +8486,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:26" ht="60">
+    <row r="129" spans="1:26" ht="24">
       <c r="A129" s="66">
         <v>91</v>
       </c>
@@ -8541,7 +8541,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:26" ht="60">
+    <row r="130" spans="1:26" ht="24">
       <c r="A130" s="66">
         <v>91</v>
       </c>
@@ -8596,7 +8596,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:26" ht="60">
+    <row r="131" spans="1:26" ht="24">
       <c r="A131" s="66">
         <v>91</v>
       </c>
@@ -8651,7 +8651,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:26" ht="60">
+    <row r="132" spans="1:26" ht="24">
       <c r="A132" s="66">
         <v>91</v>
       </c>
@@ -8706,7 +8706,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:26" ht="60">
+    <row r="133" spans="1:26" ht="24">
       <c r="A133" s="66">
         <v>91</v>
       </c>
@@ -8761,7 +8761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:26" ht="60.75" thickBot="1">
+    <row r="134" spans="1:26" ht="24.75" thickBot="1">
       <c r="A134" s="66">
         <v>91</v>
       </c>
@@ -8816,7 +8816,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:26" ht="60">
+    <row r="135" spans="1:26" ht="24">
       <c r="A135" s="66">
         <v>91</v>
       </c>
@@ -8871,7 +8871,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:26" ht="60">
+    <row r="136" spans="1:26" ht="24">
       <c r="A136" s="66">
         <v>91</v>
       </c>
@@ -8926,7 +8926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:26" ht="60">
+    <row r="137" spans="1:26" ht="24">
       <c r="A137" s="66">
         <v>91</v>
       </c>
@@ -8981,7 +8981,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:26" ht="60">
+    <row r="138" spans="1:26" ht="24">
       <c r="A138" s="66">
         <v>91</v>
       </c>
@@ -9036,7 +9036,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:26" ht="60">
+    <row r="139" spans="1:26" ht="24">
       <c r="A139" s="66">
         <v>91</v>
       </c>
@@ -9091,7 +9091,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:26" ht="60">
+    <row r="140" spans="1:26" ht="24">
       <c r="A140" s="66">
         <v>91</v>
       </c>
@@ -9146,7 +9146,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:26" ht="60">
+    <row r="141" spans="1:26" ht="24">
       <c r="A141" s="66">
         <v>91</v>
       </c>
@@ -9201,7 +9201,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:26" ht="60.75" thickBot="1">
+    <row r="142" spans="1:26" ht="24.75" thickBot="1">
       <c r="A142" s="66">
         <v>91</v>
       </c>
@@ -9256,7 +9256,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:26" ht="60">
+    <row r="143" spans="1:26" ht="24">
       <c r="A143" s="66">
         <v>91</v>
       </c>
@@ -9311,7 +9311,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:26" ht="60">
+    <row r="144" spans="1:26" ht="24">
       <c r="A144" s="66">
         <v>91</v>
       </c>
@@ -9366,7 +9366,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:26" ht="60">
+    <row r="145" spans="1:26" ht="24">
       <c r="A145" s="66">
         <v>91</v>
       </c>
@@ -9421,7 +9421,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:26" ht="60">
+    <row r="146" spans="1:26" ht="24">
       <c r="A146" s="66">
         <v>91</v>
       </c>
@@ -9476,7 +9476,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:26" ht="60">
+    <row r="147" spans="1:26" ht="24">
       <c r="A147" s="66">
         <v>91</v>
       </c>
@@ -9531,7 +9531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:26" ht="60">
+    <row r="148" spans="1:26" ht="24">
       <c r="A148" s="66">
         <v>91</v>
       </c>
@@ -9586,7 +9586,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:26" ht="60">
+    <row r="149" spans="1:26" ht="24">
       <c r="A149" s="66">
         <v>91</v>
       </c>
@@ -9641,7 +9641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:26" ht="60.75" thickBot="1">
+    <row r="150" spans="1:26" ht="24.75" thickBot="1">
       <c r="A150" s="66">
         <v>91</v>
       </c>
@@ -9696,7 +9696,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:26" ht="60">
+    <row r="151" spans="1:26" ht="24">
       <c r="A151" s="66">
         <v>91</v>
       </c>
@@ -9751,7 +9751,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:26" ht="60">
+    <row r="152" spans="1:26" ht="24">
       <c r="A152" s="66">
         <v>91</v>
       </c>
@@ -9806,7 +9806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:26" ht="60">
+    <row r="153" spans="1:26" ht="24">
       <c r="A153" s="66">
         <v>91</v>
       </c>
@@ -9861,7 +9861,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:26" ht="60">
+    <row r="154" spans="1:26" ht="24">
       <c r="A154" s="66">
         <v>91</v>
       </c>
@@ -9916,7 +9916,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:26" ht="60">
+    <row r="155" spans="1:26" ht="24">
       <c r="A155" s="66">
         <v>91</v>
       </c>
@@ -9971,7 +9971,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:26" ht="60">
+    <row r="156" spans="1:26" ht="24">
       <c r="A156" s="66">
         <v>91</v>
       </c>
@@ -10026,7 +10026,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:26" ht="60">
+    <row r="157" spans="1:26" ht="24">
       <c r="A157" s="66">
         <v>91</v>
       </c>
@@ -10081,7 +10081,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:26" ht="60.75" thickBot="1">
+    <row r="158" spans="1:26" ht="24.75" thickBot="1">
       <c r="A158" s="66">
         <v>91</v>
       </c>
@@ -10136,7 +10136,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:26" ht="60">
+    <row r="159" spans="1:26" ht="24">
       <c r="A159" s="66">
         <v>91</v>
       </c>
@@ -10193,7 +10193,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:26" ht="60">
+    <row r="160" spans="1:26" ht="24">
       <c r="A160" s="66">
         <v>91</v>
       </c>
@@ -10250,7 +10250,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:26" ht="60">
+    <row r="161" spans="1:26" ht="24">
       <c r="A161" s="66">
         <v>91</v>
       </c>
@@ -10307,7 +10307,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:26" ht="60">
+    <row r="162" spans="1:26" ht="24">
       <c r="A162" s="66">
         <v>91</v>
       </c>
@@ -10364,7 +10364,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:26" ht="60">
+    <row r="163" spans="1:26" ht="24">
       <c r="A163" s="66">
         <v>91</v>
       </c>
@@ -10421,7 +10421,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:26" ht="60">
+    <row r="164" spans="1:26" ht="24">
       <c r="A164" s="66">
         <v>91</v>
       </c>
@@ -10478,7 +10478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:26" ht="60">
+    <row r="165" spans="1:26" ht="24">
       <c r="A165" s="66">
         <v>91</v>
       </c>
@@ -10535,7 +10535,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:26" ht="60.75" thickBot="1">
+    <row r="166" spans="1:26" ht="24.75" thickBot="1">
       <c r="A166" s="66">
         <v>91</v>
       </c>
@@ -10592,7 +10592,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:26" ht="60">
+    <row r="167" spans="1:26" ht="24">
       <c r="A167" s="66">
         <v>91</v>
       </c>
@@ -10649,7 +10649,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:26" ht="60">
+    <row r="168" spans="1:26" ht="24">
       <c r="A168" s="66">
         <v>91</v>
       </c>
@@ -10706,7 +10706,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:26" ht="60">
+    <row r="169" spans="1:26" ht="24">
       <c r="A169" s="66">
         <v>91</v>
       </c>
@@ -10763,7 +10763,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:26" ht="60">
+    <row r="170" spans="1:26" ht="24">
       <c r="A170" s="66">
         <v>91</v>
       </c>
@@ -10820,7 +10820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:26" ht="60">
+    <row r="171" spans="1:26" ht="24">
       <c r="A171" s="66">
         <v>91</v>
       </c>
@@ -10877,7 +10877,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:26" ht="60">
+    <row r="172" spans="1:26" ht="24">
       <c r="A172" s="66">
         <v>91</v>
       </c>
@@ -10934,7 +10934,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:26" ht="60">
+    <row r="173" spans="1:26" ht="24">
       <c r="A173" s="66">
         <v>91</v>
       </c>
@@ -10991,7 +10991,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:26" ht="60.75" thickBot="1">
+    <row r="174" spans="1:26" ht="24.75" thickBot="1">
       <c r="A174" s="66">
         <v>91</v>
       </c>
@@ -11048,7 +11048,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:26" ht="60">
+    <row r="175" spans="1:26" ht="24">
       <c r="A175" s="66">
         <v>91</v>
       </c>
@@ -11103,7 +11103,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:26" ht="60">
+    <row r="176" spans="1:26" ht="24">
       <c r="A176" s="66">
         <v>91</v>
       </c>
@@ -11158,7 +11158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:26" ht="60">
+    <row r="177" spans="1:26" ht="24">
       <c r="A177" s="66">
         <v>91</v>
       </c>
@@ -11213,7 +11213,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:26" ht="60">
+    <row r="178" spans="1:26" ht="24">
       <c r="A178" s="66">
         <v>91</v>
       </c>
@@ -11268,7 +11268,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:26" ht="60">
+    <row r="179" spans="1:26" ht="24">
       <c r="A179" s="66">
         <v>91</v>
       </c>
@@ -11323,7 +11323,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:26" ht="60">
+    <row r="180" spans="1:26" ht="24">
       <c r="A180" s="66">
         <v>91</v>
       </c>
@@ -11378,7 +11378,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:26" ht="60">
+    <row r="181" spans="1:26" ht="24">
       <c r="A181" s="66">
         <v>91</v>
       </c>
@@ -11433,7 +11433,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:26" ht="60.75" thickBot="1">
+    <row r="182" spans="1:26" ht="24.75" thickBot="1">
       <c r="A182" s="66">
         <v>91</v>
       </c>
@@ -11488,7 +11488,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:26" ht="60">
+    <row r="183" spans="1:26" ht="24">
       <c r="A183" s="66">
         <v>91</v>
       </c>
@@ -11545,7 +11545,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:26" ht="60">
+    <row r="184" spans="1:26" ht="24">
       <c r="A184" s="66">
         <v>91</v>
       </c>
@@ -11602,7 +11602,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:26" ht="60">
+    <row r="185" spans="1:26" ht="24">
       <c r="A185" s="66">
         <v>91</v>
       </c>
@@ -11659,7 +11659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:26" ht="60">
+    <row r="186" spans="1:26" ht="24">
       <c r="A186" s="66">
         <v>91</v>
       </c>
@@ -11716,7 +11716,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:26" ht="60">
+    <row r="187" spans="1:26" ht="24">
       <c r="A187" s="66">
         <v>91</v>
       </c>
@@ -11773,7 +11773,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:26" ht="60">
+    <row r="188" spans="1:26" ht="24">
       <c r="A188" s="66">
         <v>91</v>
       </c>
@@ -11830,7 +11830,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:26" ht="60">
+    <row r="189" spans="1:26" ht="24">
       <c r="A189" s="66">
         <v>91</v>
       </c>
@@ -11887,7 +11887,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:26" ht="60.75" thickBot="1">
+    <row r="190" spans="1:26" ht="24.75" thickBot="1">
       <c r="A190" s="66">
         <v>91</v>
       </c>
@@ -11944,7 +11944,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:26" ht="24.75" thickBot="1">
+    <row r="191" spans="1:26" ht="15.75" thickBot="1">
       <c r="A191" s="66">
         <v>92</v>
       </c>
@@ -12001,7 +12001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:26" ht="24.75" thickBot="1">
+    <row r="192" spans="1:26" ht="15.75" thickBot="1">
       <c r="A192" s="66">
         <v>92</v>
       </c>
@@ -12058,7 +12058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:26" ht="24.75" thickBot="1">
+    <row r="193" spans="1:26" ht="15.75" thickBot="1">
       <c r="A193" s="66">
         <v>93</v>
       </c>
@@ -12115,7 +12115,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:26" ht="24.75" thickBot="1">
+    <row r="194" spans="1:26" ht="15.75" thickBot="1">
       <c r="A194" s="66">
         <v>93</v>
       </c>
@@ -12229,7 +12229,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:26" ht="24.75" thickBot="1">
+    <row r="196" spans="1:26" ht="15.75" thickBot="1">
       <c r="A196" s="66">
         <v>94</v>
       </c>
@@ -12286,7 +12286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:26" ht="24.75" thickBot="1">
+    <row r="197" spans="1:26" ht="15.75" thickBot="1">
       <c r="A197" s="66">
         <v>94</v>
       </c>
@@ -12341,7 +12341,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:26" ht="24.75" thickBot="1">
+    <row r="198" spans="1:26" ht="15.75" thickBot="1">
       <c r="A198" s="66">
         <v>94</v>
       </c>
@@ -12394,7 +12394,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:26" ht="36.75" thickBot="1">
+    <row r="199" spans="1:26" ht="15.75" thickBot="1">
       <c r="A199" s="66">
         <v>94</v>
       </c>
@@ -12451,7 +12451,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:26" ht="36.75" thickBot="1">
+    <row r="200" spans="1:26" ht="15.75" thickBot="1">
       <c r="A200" s="66">
         <v>94</v>
       </c>
@@ -12506,7 +12506,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:26" ht="36.75" thickBot="1">
+    <row r="201" spans="1:26" ht="15.75" thickBot="1">
       <c r="A201" s="66">
         <v>95</v>
       </c>
@@ -12561,7 +12561,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:26" ht="36.75" thickBot="1">
+    <row r="202" spans="1:26" ht="15.75" thickBot="1">
       <c r="A202" s="66">
         <v>95</v>
       </c>
@@ -12616,7 +12616,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:26" ht="24.75" thickBot="1">
+    <row r="203" spans="1:26" ht="15.75" thickBot="1">
       <c r="A203" s="66">
         <v>96</v>
       </c>
@@ -13145,7 +13145,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:26" ht="24.75" thickBot="1">
+    <row r="212" spans="1:26" ht="15.75" thickBot="1">
       <c r="A212" s="66">
         <v>96</v>
       </c>
@@ -13202,7 +13202,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="1:26" ht="24.75" thickBot="1">
+    <row r="213" spans="1:26" ht="15.75" thickBot="1">
       <c r="A213" s="66">
         <v>96</v>
       </c>
@@ -13259,7 +13259,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="1:26" ht="24">
+    <row r="214" spans="1:26">
       <c r="A214" s="66">
         <v>97</v>
       </c>
@@ -13316,7 +13316,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:26" ht="24">
+    <row r="215" spans="1:26">
       <c r="A215" s="66">
         <v>97</v>
       </c>
@@ -13373,7 +13373,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:26" ht="24">
+    <row r="216" spans="1:26">
       <c r="A216" s="66">
         <v>97</v>
       </c>
@@ -13430,7 +13430,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:26" ht="24">
+    <row r="217" spans="1:26">
       <c r="A217" s="66">
         <v>97</v>
       </c>
@@ -13487,7 +13487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:26" ht="24">
+    <row r="218" spans="1:26">
       <c r="A218" s="66">
         <v>97</v>
       </c>
@@ -13544,7 +13544,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:26" ht="24">
+    <row r="219" spans="1:26">
       <c r="A219" s="66">
         <v>97</v>
       </c>
@@ -13601,7 +13601,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:26" ht="24">
+    <row r="220" spans="1:26">
       <c r="A220" s="66">
         <v>97</v>
       </c>
@@ -13658,7 +13658,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:26" ht="24">
+    <row r="221" spans="1:26">
       <c r="A221" s="66">
         <v>97</v>
       </c>
@@ -13715,7 +13715,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:26" ht="24">
+    <row r="222" spans="1:26">
       <c r="A222" s="66">
         <v>97</v>
       </c>
@@ -13772,7 +13772,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:26" ht="24">
+    <row r="223" spans="1:26">
       <c r="A223" s="66">
         <v>97</v>
       </c>
@@ -13829,7 +13829,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:26" ht="24">
+    <row r="224" spans="1:26">
       <c r="A224" s="66">
         <v>97</v>
       </c>
@@ -13886,7 +13886,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:26" ht="24">
+    <row r="225" spans="1:26">
       <c r="A225" s="66">
         <v>97</v>
       </c>
@@ -13943,7 +13943,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="1:26" ht="24">
+    <row r="226" spans="1:26">
       <c r="A226" s="66">
         <v>97</v>
       </c>
@@ -14000,7 +14000,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:26" ht="24">
+    <row r="227" spans="1:26">
       <c r="A227" s="66">
         <v>97</v>
       </c>
@@ -14057,7 +14057,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:26" ht="24">
+    <row r="228" spans="1:26">
       <c r="A228" s="66">
         <v>97</v>
       </c>
@@ -14114,7 +14114,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:26" ht="24">
+    <row r="229" spans="1:26">
       <c r="A229" s="66">
         <v>97</v>
       </c>
@@ -14171,7 +14171,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:26" ht="24">
+    <row r="230" spans="1:26">
       <c r="A230" s="66">
         <v>97</v>
       </c>
@@ -14228,7 +14228,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="1:26" ht="24">
+    <row r="231" spans="1:26">
       <c r="A231" s="66">
         <v>97</v>
       </c>
@@ -14285,7 +14285,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:26" ht="24">
+    <row r="232" spans="1:26">
       <c r="A232" s="66">
         <v>97</v>
       </c>
@@ -14342,7 +14342,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:26" ht="24">
+    <row r="233" spans="1:26">
       <c r="A233" s="66">
         <v>97</v>
       </c>
@@ -14399,7 +14399,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:26" ht="24">
+    <row r="234" spans="1:26">
       <c r="A234" s="66">
         <v>97</v>
       </c>
@@ -14456,7 +14456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:26" ht="24">
+    <row r="235" spans="1:26">
       <c r="A235" s="66">
         <v>97</v>
       </c>
@@ -14513,7 +14513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:26" ht="24">
+    <row r="236" spans="1:26">
       <c r="A236" s="66">
         <v>97</v>
       </c>
@@ -14570,7 +14570,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:26" ht="24">
+    <row r="237" spans="1:26">
       <c r="A237" s="66">
         <v>97</v>
       </c>
@@ -14627,7 +14627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:26" ht="24">
+    <row r="238" spans="1:26">
       <c r="A238" s="66">
         <v>97</v>
       </c>
@@ -14684,7 +14684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:26" ht="24">
+    <row r="239" spans="1:26">
       <c r="A239" s="66">
         <v>97</v>
       </c>
@@ -14741,7 +14741,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:26" ht="24">
+    <row r="240" spans="1:26">
       <c r="A240" s="66">
         <v>97</v>
       </c>
@@ -14798,7 +14798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:26" ht="24">
+    <row r="241" spans="1:26">
       <c r="A241" s="66">
         <v>97</v>
       </c>
@@ -14855,7 +14855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:26" ht="24">
+    <row r="242" spans="1:26">
       <c r="A242" s="66">
         <v>97</v>
       </c>
@@ -14912,7 +14912,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:26" ht="24">
+    <row r="243" spans="1:26">
       <c r="A243" s="66">
         <v>97</v>
       </c>
@@ -14969,7 +14969,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:26" ht="24">
+    <row r="244" spans="1:26">
       <c r="A244" s="66">
         <v>97</v>
       </c>
@@ -15026,7 +15026,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:26" ht="24">
+    <row r="245" spans="1:26">
       <c r="A245" s="66">
         <v>97</v>
       </c>
@@ -15083,7 +15083,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="1:26" ht="24">
+    <row r="246" spans="1:26">
       <c r="A246" s="66">
         <v>97</v>
       </c>
@@ -15140,7 +15140,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:26" ht="24">
+    <row r="247" spans="1:26">
       <c r="A247" s="66">
         <v>97</v>
       </c>
@@ -15197,7 +15197,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="248" spans="1:26" ht="24">
+    <row r="248" spans="1:26">
       <c r="A248" s="66">
         <v>97</v>
       </c>
@@ -15254,7 +15254,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="1:26" ht="24">
+    <row r="249" spans="1:26">
       <c r="A249" s="66">
         <v>97</v>
       </c>
@@ -15311,7 +15311,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="1:26" ht="24">
+    <row r="250" spans="1:26">
       <c r="A250" s="66">
         <v>97</v>
       </c>
@@ -15368,7 +15368,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:26" ht="24">
+    <row r="251" spans="1:26">
       <c r="A251" s="66">
         <v>97</v>
       </c>
@@ -15425,7 +15425,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="1:26" ht="24">
+    <row r="252" spans="1:26">
       <c r="A252" s="66">
         <v>97</v>
       </c>
@@ -15482,7 +15482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="1:26" ht="24">
+    <row r="253" spans="1:26">
       <c r="A253" s="66">
         <v>97</v>
       </c>
@@ -15539,7 +15539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="1:26" ht="24.75" thickBot="1">
+    <row r="254" spans="1:26" ht="15.75" thickBot="1">
       <c r="A254" s="66">
         <v>97</v>
       </c>
@@ -15596,7 +15596,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="1:26" ht="24">
+    <row r="255" spans="1:26">
       <c r="A255" s="66">
         <v>97</v>
       </c>
@@ -15653,7 +15653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="1:26" ht="24">
+    <row r="256" spans="1:26">
       <c r="A256" s="66">
         <v>97</v>
       </c>
@@ -15710,7 +15710,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="1:26" ht="24">
+    <row r="257" spans="1:26">
       <c r="A257" s="66">
         <v>97</v>
       </c>
@@ -15767,7 +15767,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="1:26" ht="24">
+    <row r="258" spans="1:26">
       <c r="A258" s="66">
         <v>97</v>
       </c>
@@ -15824,7 +15824,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="1:26" ht="24">
+    <row r="259" spans="1:26">
       <c r="A259" s="66">
         <v>97</v>
       </c>
@@ -15881,7 +15881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:26" ht="24">
+    <row r="260" spans="1:26">
       <c r="A260" s="66">
         <v>97</v>
       </c>
@@ -15938,7 +15938,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="1:26" ht="24">
+    <row r="261" spans="1:26">
       <c r="A261" s="66">
         <v>97</v>
       </c>
@@ -15995,7 +15995,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="262" spans="1:26" ht="24">
+    <row r="262" spans="1:26">
       <c r="A262" s="66">
         <v>97</v>
       </c>
@@ -16052,7 +16052,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="263" spans="1:26" ht="24">
+    <row r="263" spans="1:26">
       <c r="A263" s="66">
         <v>97</v>
       </c>
@@ -16109,7 +16109,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="264" spans="1:26" ht="24">
+    <row r="264" spans="1:26">
       <c r="A264" s="66">
         <v>97</v>
       </c>
@@ -16166,7 +16166,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="265" spans="1:26" ht="24">
+    <row r="265" spans="1:26">
       <c r="A265" s="66">
         <v>97</v>
       </c>
@@ -16223,7 +16223,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="1:26" ht="24">
+    <row r="266" spans="1:26">
       <c r="A266" s="66">
         <v>97</v>
       </c>
@@ -16280,7 +16280,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="1:26" ht="24">
+    <row r="267" spans="1:26">
       <c r="A267" s="66">
         <v>97</v>
       </c>
@@ -16337,7 +16337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:26" ht="24">
+    <row r="268" spans="1:26">
       <c r="A268" s="66">
         <v>97</v>
       </c>
@@ -16394,7 +16394,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="269" spans="1:26" ht="24">
+    <row r="269" spans="1:26">
       <c r="A269" s="66">
         <v>97</v>
       </c>
@@ -16451,7 +16451,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="270" spans="1:26" ht="24">
+    <row r="270" spans="1:26">
       <c r="A270" s="66">
         <v>97</v>
       </c>
@@ -16508,7 +16508,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="271" spans="1:26" ht="24">
+    <row r="271" spans="1:26">
       <c r="A271" s="66">
         <v>97</v>
       </c>
@@ -16565,7 +16565,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="1:26" ht="24">
+    <row r="272" spans="1:26">
       <c r="A272" s="66">
         <v>97</v>
       </c>
@@ -16622,7 +16622,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:26" ht="24">
+    <row r="273" spans="1:26">
       <c r="A273" s="66">
         <v>97</v>
       </c>
@@ -16679,7 +16679,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="274" spans="1:26" ht="24">
+    <row r="274" spans="1:26">
       <c r="A274" s="66">
         <v>97</v>
       </c>
@@ -16736,7 +16736,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="275" spans="1:26" ht="24">
+    <row r="275" spans="1:26">
       <c r="A275" s="66">
         <v>97</v>
       </c>
@@ -16793,7 +16793,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="276" spans="1:26" ht="24">
+    <row r="276" spans="1:26">
       <c r="A276" s="66">
         <v>97</v>
       </c>
@@ -16850,7 +16850,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="277" spans="1:26" ht="24">
+    <row r="277" spans="1:26">
       <c r="A277" s="66">
         <v>97</v>
       </c>
@@ -16907,7 +16907,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="278" spans="1:26" ht="24">
+    <row r="278" spans="1:26">
       <c r="A278" s="66">
         <v>97</v>
       </c>
@@ -16964,7 +16964,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="279" spans="1:26" ht="24">
+    <row r="279" spans="1:26">
       <c r="A279" s="66">
         <v>97</v>
       </c>
@@ -17021,7 +17021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="280" spans="1:26" ht="24">
+    <row r="280" spans="1:26">
       <c r="A280" s="66">
         <v>97</v>
       </c>
@@ -17078,7 +17078,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="281" spans="1:26" ht="24">
+    <row r="281" spans="1:26">
       <c r="A281" s="66">
         <v>97</v>
       </c>
@@ -17135,7 +17135,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="282" spans="1:26" ht="24">
+    <row r="282" spans="1:26">
       <c r="A282" s="66">
         <v>97</v>
       </c>
@@ -17192,7 +17192,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="283" spans="1:26" ht="24">
+    <row r="283" spans="1:26">
       <c r="A283" s="66">
         <v>97</v>
       </c>
@@ -17249,7 +17249,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="284" spans="1:26" ht="24">
+    <row r="284" spans="1:26">
       <c r="A284" s="66">
         <v>97</v>
       </c>
@@ -17306,7 +17306,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="285" spans="1:26" ht="24">
+    <row r="285" spans="1:26">
       <c r="A285" s="66">
         <v>97</v>
       </c>
@@ -17363,7 +17363,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:26" ht="24">
+    <row r="286" spans="1:26">
       <c r="A286" s="66">
         <v>97</v>
       </c>
@@ -17420,7 +17420,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="287" spans="1:26" ht="24">
+    <row r="287" spans="1:26">
       <c r="A287" s="66">
         <v>97</v>
       </c>
@@ -17477,7 +17477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="288" spans="1:26" ht="24">
+    <row r="288" spans="1:26">
       <c r="A288" s="66">
         <v>97</v>
       </c>
@@ -17534,7 +17534,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="289" spans="1:26" ht="24">
+    <row r="289" spans="1:26">
       <c r="A289" s="66">
         <v>97</v>
       </c>
@@ -17591,7 +17591,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="290" spans="1:26" ht="24">
+    <row r="290" spans="1:26">
       <c r="A290" s="66">
         <v>97</v>
       </c>
@@ -17648,7 +17648,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="291" spans="1:26" ht="24">
+    <row r="291" spans="1:26">
       <c r="A291" s="66">
         <v>97</v>
       </c>
@@ -17705,7 +17705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="292" spans="1:26" ht="24">
+    <row r="292" spans="1:26">
       <c r="A292" s="66">
         <v>97</v>
       </c>
@@ -17762,7 +17762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="293" spans="1:26" ht="24">
+    <row r="293" spans="1:26">
       <c r="A293" s="66">
         <v>97</v>
       </c>
@@ -17819,7 +17819,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="294" spans="1:26" ht="24">
+    <row r="294" spans="1:26">
       <c r="A294" s="66">
         <v>97</v>
       </c>
@@ -17876,7 +17876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="295" spans="1:26" ht="24.75" thickBot="1">
+    <row r="295" spans="1:26" ht="15.75" thickBot="1">
       <c r="A295" s="66">
         <v>97</v>
       </c>
@@ -17933,7 +17933,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="296" spans="1:26" ht="24">
+    <row r="296" spans="1:26">
       <c r="A296" s="66">
         <v>97</v>
       </c>
@@ -17990,7 +17990,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="297" spans="1:26" ht="24">
+    <row r="297" spans="1:26">
       <c r="A297" s="66">
         <v>97</v>
       </c>
@@ -18047,7 +18047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="298" spans="1:26" ht="24">
+    <row r="298" spans="1:26">
       <c r="A298" s="66">
         <v>97</v>
       </c>
@@ -18104,7 +18104,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="299" spans="1:26" ht="24">
+    <row r="299" spans="1:26">
       <c r="A299" s="66">
         <v>97</v>
       </c>
@@ -18161,7 +18161,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="300" spans="1:26" ht="24">
+    <row r="300" spans="1:26">
       <c r="A300" s="66">
         <v>97</v>
       </c>
@@ -18218,7 +18218,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="301" spans="1:26" ht="24">
+    <row r="301" spans="1:26">
       <c r="A301" s="66">
         <v>97</v>
       </c>
@@ -18275,7 +18275,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="302" spans="1:26" ht="24">
+    <row r="302" spans="1:26">
       <c r="A302" s="66">
         <v>97</v>
       </c>
@@ -18332,7 +18332,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="303" spans="1:26" ht="24">
+    <row r="303" spans="1:26">
       <c r="A303" s="66">
         <v>97</v>
       </c>
@@ -18389,7 +18389,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="304" spans="1:26" ht="24">
+    <row r="304" spans="1:26">
       <c r="A304" s="66">
         <v>97</v>
       </c>
@@ -18446,7 +18446,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="305" spans="1:26" ht="24">
+    <row r="305" spans="1:26">
       <c r="A305" s="66">
         <v>97</v>
       </c>
@@ -18503,7 +18503,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="306" spans="1:26" ht="24">
+    <row r="306" spans="1:26">
       <c r="A306" s="66">
         <v>97</v>
       </c>
@@ -18560,7 +18560,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="307" spans="1:26" ht="24">
+    <row r="307" spans="1:26">
       <c r="A307" s="66">
         <v>97</v>
       </c>
@@ -18617,7 +18617,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="308" spans="1:26" ht="24">
+    <row r="308" spans="1:26">
       <c r="A308" s="66">
         <v>97</v>
       </c>
@@ -18674,7 +18674,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="309" spans="1:26" ht="24">
+    <row r="309" spans="1:26">
       <c r="A309" s="66">
         <v>97</v>
       </c>
@@ -18731,7 +18731,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="310" spans="1:26" ht="24">
+    <row r="310" spans="1:26">
       <c r="A310" s="66">
         <v>97</v>
       </c>
@@ -18788,7 +18788,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="311" spans="1:26" ht="24">
+    <row r="311" spans="1:26">
       <c r="A311" s="66">
         <v>97</v>
       </c>
@@ -18845,7 +18845,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="312" spans="1:26" ht="24">
+    <row r="312" spans="1:26">
       <c r="A312" s="66">
         <v>97</v>
       </c>
@@ -18902,7 +18902,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="313" spans="1:26" ht="24">
+    <row r="313" spans="1:26">
       <c r="A313" s="66">
         <v>97</v>
       </c>
@@ -18959,7 +18959,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="314" spans="1:26" ht="24">
+    <row r="314" spans="1:26">
       <c r="A314" s="66">
         <v>97</v>
       </c>
@@ -19016,7 +19016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="315" spans="1:26" ht="24">
+    <row r="315" spans="1:26">
       <c r="A315" s="66">
         <v>97</v>
       </c>
@@ -19073,7 +19073,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="316" spans="1:26" ht="24">
+    <row r="316" spans="1:26">
       <c r="A316" s="66">
         <v>97</v>
       </c>
@@ -19130,7 +19130,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="317" spans="1:26" ht="24">
+    <row r="317" spans="1:26">
       <c r="A317" s="66">
         <v>97</v>
       </c>
@@ -19187,7 +19187,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="318" spans="1:26" ht="24">
+    <row r="318" spans="1:26">
       <c r="A318" s="66">
         <v>97</v>
       </c>
@@ -19244,7 +19244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="1:26" ht="24">
+    <row r="319" spans="1:26">
       <c r="A319" s="66">
         <v>97</v>
       </c>
@@ -19301,7 +19301,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="320" spans="1:26" ht="24">
+    <row r="320" spans="1:26">
       <c r="A320" s="66">
         <v>97</v>
       </c>
@@ -19358,7 +19358,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="321" spans="1:26" ht="24">
+    <row r="321" spans="1:26">
       <c r="A321" s="66">
         <v>97</v>
       </c>
@@ -19415,7 +19415,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="322" spans="1:26" ht="24">
+    <row r="322" spans="1:26">
       <c r="A322" s="66">
         <v>97</v>
       </c>
@@ -19472,7 +19472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="323" spans="1:26" ht="24">
+    <row r="323" spans="1:26">
       <c r="A323" s="66">
         <v>97</v>
       </c>
@@ -19529,7 +19529,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="324" spans="1:26" ht="24">
+    <row r="324" spans="1:26">
       <c r="A324" s="66">
         <v>97</v>
       </c>
@@ -19586,7 +19586,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="325" spans="1:26" ht="24">
+    <row r="325" spans="1:26">
       <c r="A325" s="66">
         <v>97</v>
       </c>
@@ -19643,7 +19643,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="326" spans="1:26" ht="24">
+    <row r="326" spans="1:26">
       <c r="A326" s="66">
         <v>97</v>
       </c>
@@ -19700,7 +19700,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="327" spans="1:26" ht="24">
+    <row r="327" spans="1:26">
       <c r="A327" s="66">
         <v>97</v>
       </c>
@@ -19757,7 +19757,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="328" spans="1:26" ht="24">
+    <row r="328" spans="1:26">
       <c r="A328" s="66">
         <v>97</v>
       </c>
@@ -19814,7 +19814,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="329" spans="1:26" ht="24">
+    <row r="329" spans="1:26">
       <c r="A329" s="66">
         <v>97</v>
       </c>
@@ -19871,7 +19871,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="330" spans="1:26" ht="24">
+    <row r="330" spans="1:26">
       <c r="A330" s="66">
         <v>97</v>
       </c>
@@ -19928,7 +19928,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="331" spans="1:26" ht="24">
+    <row r="331" spans="1:26">
       <c r="A331" s="66">
         <v>97</v>
       </c>
@@ -19985,7 +19985,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="332" spans="1:26" ht="24">
+    <row r="332" spans="1:26">
       <c r="A332" s="66">
         <v>97</v>
       </c>
@@ -20042,7 +20042,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="333" spans="1:26" ht="24">
+    <row r="333" spans="1:26">
       <c r="A333" s="66">
         <v>97</v>
       </c>
@@ -20099,7 +20099,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="334" spans="1:26" ht="24">
+    <row r="334" spans="1:26">
       <c r="A334" s="66">
         <v>97</v>
       </c>
@@ -20156,7 +20156,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="335" spans="1:26" ht="24">
+    <row r="335" spans="1:26">
       <c r="A335" s="66">
         <v>97</v>
       </c>
@@ -20213,7 +20213,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="336" spans="1:26" ht="24.75" thickBot="1">
+    <row r="336" spans="1:26" ht="15.75" thickBot="1">
       <c r="A336" s="66">
         <v>97</v>
       </c>
@@ -20270,7 +20270,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="337" spans="1:26" ht="24">
+    <row r="337" spans="1:26">
       <c r="A337" s="66">
         <v>97</v>
       </c>
@@ -20327,7 +20327,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="338" spans="1:26" ht="24">
+    <row r="338" spans="1:26">
       <c r="A338" s="66">
         <v>97</v>
       </c>
@@ -20384,7 +20384,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="339" spans="1:26" ht="24">
+    <row r="339" spans="1:26">
       <c r="A339" s="66">
         <v>97</v>
       </c>
@@ -20441,7 +20441,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="340" spans="1:26" ht="24">
+    <row r="340" spans="1:26">
       <c r="A340" s="66">
         <v>97</v>
       </c>
@@ -20498,7 +20498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="341" spans="1:26" ht="24">
+    <row r="341" spans="1:26">
       <c r="A341" s="66">
         <v>97</v>
       </c>
@@ -20555,7 +20555,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="342" spans="1:26" ht="24">
+    <row r="342" spans="1:26">
       <c r="A342" s="66">
         <v>97</v>
       </c>
@@ -20612,7 +20612,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="343" spans="1:26" ht="24">
+    <row r="343" spans="1:26">
       <c r="A343" s="66">
         <v>97</v>
       </c>
@@ -20669,7 +20669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="344" spans="1:26" ht="24">
+    <row r="344" spans="1:26">
       <c r="A344" s="66">
         <v>97</v>
       </c>
@@ -20726,7 +20726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="345" spans="1:26" ht="24">
+    <row r="345" spans="1:26">
       <c r="A345" s="66">
         <v>97</v>
       </c>
@@ -20783,7 +20783,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="346" spans="1:26" ht="24">
+    <row r="346" spans="1:26">
       <c r="A346" s="66">
         <v>97</v>
       </c>
@@ -20840,7 +20840,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="347" spans="1:26" ht="24">
+    <row r="347" spans="1:26">
       <c r="A347" s="66">
         <v>97</v>
       </c>
@@ -20897,7 +20897,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="348" spans="1:26" ht="24">
+    <row r="348" spans="1:26">
       <c r="A348" s="66">
         <v>97</v>
       </c>
@@ -20954,7 +20954,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="349" spans="1:26" ht="24">
+    <row r="349" spans="1:26">
       <c r="A349" s="66">
         <v>97</v>
       </c>
@@ -21011,7 +21011,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="350" spans="1:26" ht="24">
+    <row r="350" spans="1:26">
       <c r="A350" s="66">
         <v>97</v>
       </c>
@@ -21068,7 +21068,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="351" spans="1:26" ht="24">
+    <row r="351" spans="1:26">
       <c r="A351" s="66">
         <v>97</v>
       </c>
@@ -21125,7 +21125,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="352" spans="1:26" ht="24">
+    <row r="352" spans="1:26">
       <c r="A352" s="66">
         <v>97</v>
       </c>
@@ -21182,7 +21182,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="353" spans="1:26" ht="24">
+    <row r="353" spans="1:26">
       <c r="A353" s="66">
         <v>97</v>
       </c>
@@ -21239,7 +21239,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="354" spans="1:26" ht="24">
+    <row r="354" spans="1:26">
       <c r="A354" s="66">
         <v>97</v>
       </c>
@@ -21296,7 +21296,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="355" spans="1:26" ht="24">
+    <row r="355" spans="1:26">
       <c r="A355" s="66">
         <v>97</v>
       </c>
@@ -21353,7 +21353,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="356" spans="1:26" ht="24">
+    <row r="356" spans="1:26">
       <c r="A356" s="66">
         <v>97</v>
       </c>
@@ -21410,7 +21410,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="357" spans="1:26" ht="24">
+    <row r="357" spans="1:26">
       <c r="A357" s="66">
         <v>97</v>
       </c>
@@ -21467,7 +21467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="358" spans="1:26" ht="24">
+    <row r="358" spans="1:26">
       <c r="A358" s="66">
         <v>97</v>
       </c>
@@ -21524,7 +21524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="359" spans="1:26" ht="24">
+    <row r="359" spans="1:26">
       <c r="A359" s="66">
         <v>97</v>
       </c>
@@ -21581,7 +21581,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="360" spans="1:26" ht="24">
+    <row r="360" spans="1:26">
       <c r="A360" s="66">
         <v>97</v>
       </c>
@@ -21638,7 +21638,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="361" spans="1:26" ht="24">
+    <row r="361" spans="1:26">
       <c r="A361" s="66">
         <v>97</v>
       </c>
@@ -21695,7 +21695,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="362" spans="1:26" ht="24">
+    <row r="362" spans="1:26">
       <c r="A362" s="66">
         <v>97</v>
       </c>
@@ -21752,7 +21752,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="363" spans="1:26" ht="24">
+    <row r="363" spans="1:26">
       <c r="A363" s="66">
         <v>97</v>
       </c>
@@ -21809,7 +21809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="364" spans="1:26" ht="24">
+    <row r="364" spans="1:26">
       <c r="A364" s="66">
         <v>97</v>
       </c>
@@ -21866,7 +21866,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="365" spans="1:26" ht="24">
+    <row r="365" spans="1:26">
       <c r="A365" s="66">
         <v>97</v>
       </c>
@@ -21923,7 +21923,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="366" spans="1:26" ht="24">
+    <row r="366" spans="1:26">
       <c r="A366" s="66">
         <v>97</v>
       </c>
@@ -21980,7 +21980,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="367" spans="1:26" ht="24">
+    <row r="367" spans="1:26">
       <c r="A367" s="66">
         <v>97</v>
       </c>
@@ -22037,7 +22037,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="368" spans="1:26" ht="24">
+    <row r="368" spans="1:26">
       <c r="A368" s="66">
         <v>97</v>
       </c>
@@ -22094,7 +22094,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="369" spans="1:26" ht="24">
+    <row r="369" spans="1:26">
       <c r="A369" s="66">
         <v>97</v>
       </c>
@@ -22151,7 +22151,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="370" spans="1:26" ht="24">
+    <row r="370" spans="1:26">
       <c r="A370" s="66">
         <v>97</v>
       </c>
@@ -22208,7 +22208,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="371" spans="1:26" ht="24">
+    <row r="371" spans="1:26">
       <c r="A371" s="66">
         <v>97</v>
       </c>
@@ -22265,7 +22265,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="372" spans="1:26" ht="24">
+    <row r="372" spans="1:26">
       <c r="A372" s="66">
         <v>97</v>
       </c>
@@ -22322,7 +22322,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="373" spans="1:26" ht="24">
+    <row r="373" spans="1:26">
       <c r="A373" s="66">
         <v>97</v>
       </c>
@@ -22379,7 +22379,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="374" spans="1:26" ht="24">
+    <row r="374" spans="1:26">
       <c r="A374" s="66">
         <v>97</v>
       </c>
@@ -22436,7 +22436,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="375" spans="1:26" ht="24">
+    <row r="375" spans="1:26">
       <c r="A375" s="66">
         <v>97</v>
       </c>
@@ -22493,7 +22493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="376" spans="1:26" ht="24">
+    <row r="376" spans="1:26">
       <c r="A376" s="66">
         <v>97</v>
       </c>
@@ -22550,7 +22550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="377" spans="1:26" ht="24.75" thickBot="1">
+    <row r="377" spans="1:26" ht="15.75" thickBot="1">
       <c r="A377" s="66">
         <v>97</v>
       </c>
@@ -22607,7 +22607,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="378" spans="1:26" ht="24">
+    <row r="378" spans="1:26">
       <c r="A378" s="66">
         <v>97</v>
       </c>
@@ -22664,7 +22664,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="379" spans="1:26" ht="24">
+    <row r="379" spans="1:26">
       <c r="A379" s="66">
         <v>97</v>
       </c>
@@ -22721,7 +22721,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="380" spans="1:26" ht="24">
+    <row r="380" spans="1:26">
       <c r="A380" s="66">
         <v>97</v>
       </c>
@@ -22778,7 +22778,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="381" spans="1:26" ht="24">
+    <row r="381" spans="1:26">
       <c r="A381" s="66">
         <v>97</v>
       </c>
@@ -22835,7 +22835,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="382" spans="1:26" ht="24">
+    <row r="382" spans="1:26">
       <c r="A382" s="66">
         <v>97</v>
       </c>
@@ -22892,7 +22892,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="383" spans="1:26" ht="24">
+    <row r="383" spans="1:26">
       <c r="A383" s="66">
         <v>97</v>
       </c>
@@ -22949,7 +22949,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="384" spans="1:26" ht="24">
+    <row r="384" spans="1:26">
       <c r="A384" s="66">
         <v>97</v>
       </c>
@@ -23006,7 +23006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="385" spans="1:26" ht="24">
+    <row r="385" spans="1:26">
       <c r="A385" s="66">
         <v>97</v>
       </c>
@@ -23063,7 +23063,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="386" spans="1:26" ht="24">
+    <row r="386" spans="1:26">
       <c r="A386" s="66">
         <v>97</v>
       </c>
@@ -23120,7 +23120,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="387" spans="1:26" ht="24">
+    <row r="387" spans="1:26">
       <c r="A387" s="66">
         <v>97</v>
       </c>
@@ -23177,7 +23177,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="388" spans="1:26" ht="24">
+    <row r="388" spans="1:26">
       <c r="A388" s="66">
         <v>97</v>
       </c>
@@ -23234,7 +23234,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="389" spans="1:26" ht="24">
+    <row r="389" spans="1:26">
       <c r="A389" s="66">
         <v>97</v>
       </c>
@@ -23291,7 +23291,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="390" spans="1:26" ht="24">
+    <row r="390" spans="1:26">
       <c r="A390" s="66">
         <v>97</v>
       </c>
@@ -23348,7 +23348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="391" spans="1:26" ht="24">
+    <row r="391" spans="1:26">
       <c r="A391" s="66">
         <v>97</v>
       </c>
@@ -23405,7 +23405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="392" spans="1:26" ht="24">
+    <row r="392" spans="1:26">
       <c r="A392" s="66">
         <v>97</v>
       </c>
@@ -23462,7 +23462,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="393" spans="1:26" ht="24">
+    <row r="393" spans="1:26">
       <c r="A393" s="66">
         <v>97</v>
       </c>
@@ -23519,7 +23519,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="394" spans="1:26" ht="24">
+    <row r="394" spans="1:26">
       <c r="A394" s="66">
         <v>97</v>
       </c>
@@ -23576,7 +23576,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="395" spans="1:26" ht="24">
+    <row r="395" spans="1:26">
       <c r="A395" s="66">
         <v>97</v>
       </c>
@@ -23633,7 +23633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="396" spans="1:26" ht="24">
+    <row r="396" spans="1:26">
       <c r="A396" s="66">
         <v>97</v>
       </c>
@@ -23690,7 +23690,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="397" spans="1:26" ht="24">
+    <row r="397" spans="1:26">
       <c r="A397" s="66">
         <v>97</v>
       </c>
@@ -23747,7 +23747,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="398" spans="1:26" ht="24">
+    <row r="398" spans="1:26">
       <c r="A398" s="66">
         <v>97</v>
       </c>
@@ -23804,7 +23804,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="399" spans="1:26" ht="24">
+    <row r="399" spans="1:26">
       <c r="A399" s="66">
         <v>97</v>
       </c>
@@ -23861,7 +23861,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="400" spans="1:26" ht="24">
+    <row r="400" spans="1:26">
       <c r="A400" s="66">
         <v>97</v>
       </c>
@@ -23918,7 +23918,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="401" spans="1:26" ht="24">
+    <row r="401" spans="1:26">
       <c r="A401" s="66">
         <v>97</v>
       </c>
@@ -23975,7 +23975,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="402" spans="1:26" ht="24">
+    <row r="402" spans="1:26">
       <c r="A402" s="66">
         <v>97</v>
       </c>
@@ -24032,7 +24032,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="403" spans="1:26" ht="24">
+    <row r="403" spans="1:26">
       <c r="A403" s="66">
         <v>97</v>
       </c>
@@ -24089,7 +24089,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="404" spans="1:26" ht="24">
+    <row r="404" spans="1:26">
       <c r="A404" s="66">
         <v>97</v>
       </c>
@@ -24146,7 +24146,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="405" spans="1:26" ht="24">
+    <row r="405" spans="1:26">
       <c r="A405" s="66">
         <v>97</v>
       </c>
@@ -24203,7 +24203,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="406" spans="1:26" ht="24">
+    <row r="406" spans="1:26">
       <c r="A406" s="66">
         <v>97</v>
       </c>
@@ -24260,7 +24260,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="407" spans="1:26" ht="24">
+    <row r="407" spans="1:26">
       <c r="A407" s="66">
         <v>97</v>
       </c>
@@ -24317,7 +24317,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="408" spans="1:26" ht="24">
+    <row r="408" spans="1:26">
       <c r="A408" s="66">
         <v>97</v>
       </c>
@@ -24374,7 +24374,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="409" spans="1:26" ht="24">
+    <row r="409" spans="1:26">
       <c r="A409" s="66">
         <v>97</v>
       </c>
@@ -24431,7 +24431,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="410" spans="1:26" ht="24">
+    <row r="410" spans="1:26">
       <c r="A410" s="66">
         <v>97</v>
       </c>
@@ -24488,7 +24488,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="411" spans="1:26" ht="24">
+    <row r="411" spans="1:26">
       <c r="A411" s="66">
         <v>97</v>
       </c>
@@ -24545,7 +24545,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="412" spans="1:26" ht="24">
+    <row r="412" spans="1:26">
       <c r="A412" s="66">
         <v>97</v>
       </c>
@@ -24602,7 +24602,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="413" spans="1:26" ht="24">
+    <row r="413" spans="1:26">
       <c r="A413" s="66">
         <v>97</v>
       </c>
@@ -24659,7 +24659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="414" spans="1:26" ht="24">
+    <row r="414" spans="1:26">
       <c r="A414" s="66">
         <v>97</v>
       </c>
@@ -24716,7 +24716,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="415" spans="1:26" ht="24">
+    <row r="415" spans="1:26">
       <c r="A415" s="66">
         <v>97</v>
       </c>
@@ -24773,7 +24773,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="416" spans="1:26" ht="24">
+    <row r="416" spans="1:26">
       <c r="A416" s="66">
         <v>97</v>
       </c>
@@ -24830,7 +24830,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="417" spans="1:26" ht="24">
+    <row r="417" spans="1:26">
       <c r="A417" s="66">
         <v>97</v>
       </c>
@@ -24887,7 +24887,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="418" spans="1:26" ht="24.75" thickBot="1">
+    <row r="418" spans="1:26" ht="15.75" thickBot="1">
       <c r="A418" s="66">
         <v>97</v>
       </c>
@@ -24944,7 +24944,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="419" spans="1:26" ht="24">
+    <row r="419" spans="1:26">
       <c r="A419" s="66">
         <v>97</v>
       </c>
@@ -24999,7 +24999,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="420" spans="1:26" ht="24">
+    <row r="420" spans="1:26">
       <c r="A420" s="66">
         <v>97</v>
       </c>
@@ -25054,7 +25054,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="421" spans="1:26" ht="24">
+    <row r="421" spans="1:26">
       <c r="A421" s="66">
         <v>97</v>
       </c>
@@ -25109,7 +25109,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="422" spans="1:26" ht="24">
+    <row r="422" spans="1:26">
       <c r="A422" s="66">
         <v>97</v>
       </c>
@@ -25164,7 +25164,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="423" spans="1:26" ht="24">
+    <row r="423" spans="1:26">
       <c r="A423" s="66">
         <v>97</v>
       </c>
@@ -25219,7 +25219,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="424" spans="1:26" ht="24">
+    <row r="424" spans="1:26">
       <c r="A424" s="66">
         <v>97</v>
       </c>
@@ -25274,7 +25274,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="425" spans="1:26" ht="24">
+    <row r="425" spans="1:26">
       <c r="A425" s="66">
         <v>97</v>
       </c>
@@ -25329,7 +25329,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="426" spans="1:26" ht="24">
+    <row r="426" spans="1:26">
       <c r="A426" s="66">
         <v>97</v>
       </c>
@@ -25384,7 +25384,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="427" spans="1:26" ht="24">
+    <row r="427" spans="1:26">
       <c r="A427" s="66">
         <v>97</v>
       </c>
@@ -25439,7 +25439,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="428" spans="1:26" ht="24">
+    <row r="428" spans="1:26">
       <c r="A428" s="66">
         <v>97</v>
       </c>
@@ -25494,7 +25494,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="429" spans="1:26" ht="24">
+    <row r="429" spans="1:26">
       <c r="A429" s="66">
         <v>97</v>
       </c>
@@ -25549,7 +25549,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="430" spans="1:26" ht="24">
+    <row r="430" spans="1:26">
       <c r="A430" s="66">
         <v>97</v>
       </c>
@@ -25604,7 +25604,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="431" spans="1:26" ht="24">
+    <row r="431" spans="1:26">
       <c r="A431" s="66">
         <v>97</v>
       </c>
@@ -25659,7 +25659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="432" spans="1:26" ht="24">
+    <row r="432" spans="1:26">
       <c r="A432" s="66">
         <v>97</v>
       </c>
@@ -25714,7 +25714,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="433" spans="1:26" ht="24">
+    <row r="433" spans="1:26">
       <c r="A433" s="66">
         <v>97</v>
       </c>
@@ -25769,7 +25769,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="434" spans="1:26" ht="24">
+    <row r="434" spans="1:26">
       <c r="A434" s="66">
         <v>97</v>
       </c>
@@ -25824,7 +25824,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="435" spans="1:26" ht="24">
+    <row r="435" spans="1:26">
       <c r="A435" s="66">
         <v>97</v>
       </c>
@@ -25879,7 +25879,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="436" spans="1:26" ht="24">
+    <row r="436" spans="1:26">
       <c r="A436" s="66">
         <v>97</v>
       </c>
@@ -25934,7 +25934,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="437" spans="1:26" ht="24">
+    <row r="437" spans="1:26">
       <c r="A437" s="66">
         <v>97</v>
       </c>
@@ -25989,7 +25989,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="438" spans="1:26" ht="24">
+    <row r="438" spans="1:26">
       <c r="A438" s="66">
         <v>97</v>
       </c>
@@ -26044,7 +26044,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="439" spans="1:26" ht="24">
+    <row r="439" spans="1:26">
       <c r="A439" s="66">
         <v>97</v>
       </c>
@@ -26099,7 +26099,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="440" spans="1:26" ht="24">
+    <row r="440" spans="1:26">
       <c r="A440" s="66">
         <v>97</v>
       </c>
@@ -26154,7 +26154,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="441" spans="1:26" ht="24">
+    <row r="441" spans="1:26">
       <c r="A441" s="66">
         <v>97</v>
       </c>
@@ -26209,7 +26209,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="442" spans="1:26" ht="24">
+    <row r="442" spans="1:26">
       <c r="A442" s="66">
         <v>97</v>
       </c>
@@ -26264,7 +26264,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="443" spans="1:26" ht="24">
+    <row r="443" spans="1:26">
       <c r="A443" s="66">
         <v>97</v>
       </c>
@@ -26319,7 +26319,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="444" spans="1:26" ht="24">
+    <row r="444" spans="1:26">
       <c r="A444" s="66">
         <v>97</v>
       </c>
@@ -26374,7 +26374,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="445" spans="1:26" ht="24">
+    <row r="445" spans="1:26">
       <c r="A445" s="66">
         <v>97</v>
       </c>
@@ -26429,7 +26429,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="446" spans="1:26" ht="24">
+    <row r="446" spans="1:26">
       <c r="A446" s="66">
         <v>97</v>
       </c>
@@ -26484,7 +26484,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="447" spans="1:26" ht="24">
+    <row r="447" spans="1:26">
       <c r="A447" s="66">
         <v>97</v>
       </c>
@@ -26539,7 +26539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="448" spans="1:26" ht="24">
+    <row r="448" spans="1:26">
       <c r="A448" s="66">
         <v>97</v>
       </c>
@@ -26594,7 +26594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="449" spans="1:26" ht="24">
+    <row r="449" spans="1:26">
       <c r="A449" s="66">
         <v>97</v>
       </c>
@@ -26649,7 +26649,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="450" spans="1:26" ht="24">
+    <row r="450" spans="1:26">
       <c r="A450" s="66">
         <v>97</v>
       </c>
@@ -26704,7 +26704,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="451" spans="1:26" ht="24.75" thickBot="1">
+    <row r="451" spans="1:26" ht="15.75" thickBot="1">
       <c r="A451" s="66">
         <v>97</v>
       </c>
@@ -26759,7 +26759,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="452" spans="1:26" ht="24">
+    <row r="452" spans="1:26">
       <c r="A452" s="66">
         <v>97</v>
       </c>
@@ -26816,7 +26816,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="453" spans="1:26" ht="24">
+    <row r="453" spans="1:26">
       <c r="A453" s="66">
         <v>97</v>
       </c>
@@ -26873,7 +26873,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="454" spans="1:26" ht="24">
+    <row r="454" spans="1:26">
       <c r="A454" s="66">
         <v>97</v>
       </c>
@@ -26930,7 +26930,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="455" spans="1:26" ht="24">
+    <row r="455" spans="1:26">
       <c r="A455" s="66">
         <v>97</v>
       </c>
@@ -26987,7 +26987,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="456" spans="1:26" ht="24">
+    <row r="456" spans="1:26">
       <c r="A456" s="66">
         <v>97</v>
       </c>
@@ -27044,7 +27044,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="457" spans="1:26" ht="24">
+    <row r="457" spans="1:26">
       <c r="A457" s="66">
         <v>97</v>
       </c>
@@ -27101,7 +27101,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="458" spans="1:26" ht="24">
+    <row r="458" spans="1:26">
       <c r="A458" s="66">
         <v>97</v>
       </c>
@@ -27158,7 +27158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="459" spans="1:26" ht="24">
+    <row r="459" spans="1:26">
       <c r="A459" s="66">
         <v>97</v>
       </c>
@@ -27215,7 +27215,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="460" spans="1:26" ht="24">
+    <row r="460" spans="1:26">
       <c r="A460" s="66">
         <v>97</v>
       </c>
@@ -27272,7 +27272,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="461" spans="1:26" ht="24">
+    <row r="461" spans="1:26">
       <c r="A461" s="66">
         <v>97</v>
       </c>
@@ -27329,7 +27329,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="462" spans="1:26" ht="24">
+    <row r="462" spans="1:26">
       <c r="A462" s="66">
         <v>97</v>
       </c>
@@ -27386,7 +27386,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="463" spans="1:26" ht="24">
+    <row r="463" spans="1:26">
       <c r="A463" s="66">
         <v>97</v>
       </c>
@@ -27443,7 +27443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="464" spans="1:26" ht="24">
+    <row r="464" spans="1:26">
       <c r="A464" s="66">
         <v>97</v>
       </c>
@@ -27500,7 +27500,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="465" spans="1:26" ht="24">
+    <row r="465" spans="1:26">
       <c r="A465" s="66">
         <v>97</v>
       </c>
@@ -27557,7 +27557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="466" spans="1:26" ht="24">
+    <row r="466" spans="1:26">
       <c r="A466" s="66">
         <v>97</v>
       </c>
@@ -27614,7 +27614,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="467" spans="1:26" ht="24">
+    <row r="467" spans="1:26">
       <c r="A467" s="66">
         <v>97</v>
       </c>
@@ -27671,7 +27671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="468" spans="1:26" ht="24">
+    <row r="468" spans="1:26">
       <c r="A468" s="66">
         <v>97</v>
       </c>
@@ -27728,7 +27728,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="469" spans="1:26" ht="24">
+    <row r="469" spans="1:26">
       <c r="A469" s="66">
         <v>97</v>
       </c>
@@ -27785,7 +27785,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="470" spans="1:26" ht="24">
+    <row r="470" spans="1:26">
       <c r="A470" s="66">
         <v>97</v>
       </c>
@@ -27842,7 +27842,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="471" spans="1:26" ht="24">
+    <row r="471" spans="1:26">
       <c r="A471" s="66">
         <v>97</v>
       </c>
@@ -27899,7 +27899,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="472" spans="1:26" ht="24">
+    <row r="472" spans="1:26">
       <c r="A472" s="66">
         <v>97</v>
       </c>
@@ -27956,7 +27956,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="473" spans="1:26" ht="24">
+    <row r="473" spans="1:26">
       <c r="A473" s="66">
         <v>97</v>
       </c>
@@ -28013,7 +28013,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="474" spans="1:26" ht="24">
+    <row r="474" spans="1:26">
       <c r="A474" s="66">
         <v>97</v>
       </c>
@@ -28070,7 +28070,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="475" spans="1:26" ht="24">
+    <row r="475" spans="1:26">
       <c r="A475" s="66">
         <v>97</v>
       </c>
@@ -28127,7 +28127,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="476" spans="1:26" ht="24">
+    <row r="476" spans="1:26">
       <c r="A476" s="66">
         <v>97</v>
       </c>
@@ -28184,7 +28184,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="477" spans="1:26" ht="24">
+    <row r="477" spans="1:26">
       <c r="A477" s="66">
         <v>97</v>
       </c>
@@ -28241,7 +28241,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="478" spans="1:26" ht="24">
+    <row r="478" spans="1:26">
       <c r="A478" s="66">
         <v>97</v>
       </c>
@@ -28298,7 +28298,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="479" spans="1:26" ht="24">
+    <row r="479" spans="1:26">
       <c r="A479" s="66">
         <v>97</v>
       </c>
@@ -28355,7 +28355,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="480" spans="1:26" ht="24">
+    <row r="480" spans="1:26">
       <c r="A480" s="66">
         <v>97</v>
       </c>
@@ -28412,7 +28412,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="481" spans="1:26" ht="24">
+    <row r="481" spans="1:26">
       <c r="A481" s="66">
         <v>97</v>
       </c>
@@ -28469,7 +28469,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="482" spans="1:26" ht="24">
+    <row r="482" spans="1:26">
       <c r="A482" s="66">
         <v>97</v>
       </c>
@@ -28526,7 +28526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="483" spans="1:26" ht="24">
+    <row r="483" spans="1:26">
       <c r="A483" s="66">
         <v>97</v>
       </c>
@@ -28583,7 +28583,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="484" spans="1:26" ht="24.75" thickBot="1">
+    <row r="484" spans="1:26" ht="15.75" thickBot="1">
       <c r="A484" s="66">
         <v>97</v>
       </c>
